--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed5/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.846</v>
+        <v>-10.872</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.32</v>
+        <v>-7.136000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.858</v>
+        <v>4.806</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.778</v>
+        <v>-12.21</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.944</v>
+        <v>-7.755000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.843999999999999</v>
+        <v>-8.163</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.266</v>
+        <v>-13.088</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.382</v>
+        <v>5.441000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.222</v>
+        <v>-7.176</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.124</v>
+        <v>-12.319</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.508</v>
+        <v>6.205</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.618</v>
+        <v>-12.35</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.036000000000001</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.665</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.562</v>
+        <v>5.148000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.372</v>
+        <v>-7.749</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.826</v>
+        <v>-12.776</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.220000000000001</v>
+        <v>5.839</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.378</v>
+        <v>-7.375</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.164</v>
+        <v>-11.07</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.758</v>
+        <v>5.006</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.478</v>
+        <v>4.742</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.41</v>
+        <v>4.49</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.697</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.624000000000001</v>
+        <v>-8.021000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.686</v>
+        <v>5.169</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.146999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.915999999999999</v>
+        <v>5.501</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.032</v>
+        <v>-7.906999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.444</v>
+        <v>-13.319</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.884</v>
+        <v>5.412000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.1</v>
+        <v>-13.772</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.162000000000001</v>
+        <v>-8.360000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.856</v>
+        <v>5.052</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.394</v>
+        <v>-6.856999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.787999999999999</v>
+        <v>5.949</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.948</v>
+        <v>-6.395</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.722</v>
+        <v>-6.672</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.746</v>
+        <v>5.685999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.278</v>
+        <v>-7.38</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.351999999999999</v>
+        <v>5.718</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.288</v>
+        <v>-12.807</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.606</v>
+        <v>-13.583</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.738</v>
+        <v>-7.723999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
